--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Ptgs2-Cav1.xlsx
@@ -537,16 +537,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G2">
-        <v>474.5132896666667</v>
+        <v>0.1242136666666667</v>
       </c>
       <c r="H2">
-        <v>1423.539869</v>
+        <v>0.372641</v>
       </c>
       <c r="I2">
-        <v>0.8843028913916159</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="J2">
-        <v>0.8843028913916158</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N2">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O2">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P2">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q2">
-        <v>232526.627557509</v>
+        <v>126.9382830524565</v>
       </c>
       <c r="R2">
-        <v>2092739.648017581</v>
+        <v>1142.444547472109</v>
       </c>
       <c r="S2">
-        <v>0.5912819668619433</v>
+        <v>0.002053361521326818</v>
       </c>
       <c r="T2">
-        <v>0.5912819668619432</v>
+        <v>0.002053361521326817</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G3">
-        <v>474.5132896666667</v>
+        <v>0.1242136666666667</v>
       </c>
       <c r="H3">
-        <v>1423.539869</v>
+        <v>0.372641</v>
       </c>
       <c r="I3">
-        <v>0.8843028913916159</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="J3">
-        <v>0.8843028913916158</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>188.379193</v>
       </c>
       <c r="O3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P3">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q3">
-        <v>29796.14352506064</v>
+        <v>7.799756762079223</v>
       </c>
       <c r="R3">
-        <v>268165.2917255457</v>
+        <v>70.19781085871301</v>
       </c>
       <c r="S3">
-        <v>0.07576733268554935</v>
+        <v>0.0001261693480157103</v>
       </c>
       <c r="T3">
-        <v>0.07576733268554933</v>
+        <v>0.0001261693480157102</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G4">
-        <v>474.5132896666667</v>
+        <v>0.1242136666666667</v>
       </c>
       <c r="H4">
-        <v>1423.539869</v>
+        <v>0.372641</v>
       </c>
       <c r="I4">
-        <v>0.8843028913916159</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="J4">
-        <v>0.8843028913916158</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N4">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P4">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q4">
-        <v>85153.15319250956</v>
+        <v>23.245293037619</v>
       </c>
       <c r="R4">
-        <v>766378.3787325862</v>
+        <v>209.207637338571</v>
       </c>
       <c r="S4">
-        <v>0.2165322932390221</v>
+        <v>0.0003760172985456914</v>
       </c>
       <c r="T4">
-        <v>0.2165322932390221</v>
+        <v>0.0003760172985456912</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="G5">
-        <v>474.5132896666667</v>
+        <v>0.1242136666666667</v>
       </c>
       <c r="H5">
-        <v>1423.539869</v>
+        <v>0.372641</v>
       </c>
       <c r="I5">
-        <v>0.8843028913916159</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="J5">
-        <v>0.8843028913916158</v>
+        <v>0.002558276231729912</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N5">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P5">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q5">
-        <v>283.6567686922917</v>
+        <v>0.1686482075977778</v>
       </c>
       <c r="R5">
-        <v>2552.910918230626</v>
+        <v>1.51783386838</v>
       </c>
       <c r="S5">
-        <v>0.0007212986051010455</v>
+        <v>2.728063841693126E-06</v>
       </c>
       <c r="T5">
-        <v>0.0007212986051010454</v>
+        <v>2.728063841693125E-06</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>71.598387</v>
       </c>
       <c r="I6">
-        <v>0.04447691422057101</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="J6">
-        <v>0.044476914220571</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N6">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O6">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P6">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q6">
-        <v>11695.1634655393</v>
+        <v>24389.63054281554</v>
       </c>
       <c r="R6">
-        <v>105256.4711898537</v>
+        <v>219506.6748853399</v>
       </c>
       <c r="S6">
-        <v>0.02973912850030799</v>
+        <v>0.3945281728389153</v>
       </c>
       <c r="T6">
-        <v>0.02973912850030798</v>
+        <v>0.3945281728389152</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>71.598387</v>
       </c>
       <c r="I7">
-        <v>0.04447691422057101</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="J7">
-        <v>0.044476914220571</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>188.379193</v>
       </c>
       <c r="O7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P7">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q7">
         <v>1498.627373684633</v>
@@ -883,10 +883,10 @@
         <v>13487.64636316169</v>
       </c>
       <c r="S7">
-        <v>0.003810795135220559</v>
+        <v>0.02424188912858892</v>
       </c>
       <c r="T7">
-        <v>0.003810795135220558</v>
+        <v>0.02424188912858892</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>71.598387</v>
       </c>
       <c r="I8">
-        <v>0.04447691422057101</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="J8">
-        <v>0.044476914220571</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N8">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P8">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q8">
-        <v>4282.864533207946</v>
+        <v>4466.297285687433</v>
       </c>
       <c r="R8">
-        <v>38545.78079887152</v>
+        <v>40196.6755711869</v>
       </c>
       <c r="S8">
-        <v>0.01089071213735356</v>
+        <v>0.07224710125823232</v>
       </c>
       <c r="T8">
-        <v>0.01089071213735355</v>
+        <v>0.07224710125823229</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>71.598387</v>
       </c>
       <c r="I9">
-        <v>0.04447691422057101</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="J9">
-        <v>0.044476914220571</v>
+        <v>0.4915413271548217</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N9">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P9">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q9">
-        <v>14.26680596888867</v>
+        <v>32.40367977340667</v>
       </c>
       <c r="R9">
-        <v>128.401253719998</v>
+        <v>291.6331179606601</v>
       </c>
       <c r="S9">
-        <v>3.627844768890335E-05</v>
+        <v>0.0005241639290852353</v>
       </c>
       <c r="T9">
-        <v>3.627844768890335E-05</v>
+        <v>0.0005241639290852351</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,22 +1027,22 @@
         <v>20</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G10">
-        <v>0.1543923333333334</v>
+        <v>0.3378266666666667</v>
       </c>
       <c r="H10">
-        <v>0.4631770000000001</v>
+        <v>1.01348</v>
       </c>
       <c r="I10">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901278</v>
       </c>
       <c r="J10">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901277</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N10">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O10">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P10">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q10">
-        <v>75.65716150111167</v>
+        <v>345.2368663351689</v>
       </c>
       <c r="R10">
-        <v>680.9144535100052</v>
+        <v>3107.13179701652</v>
       </c>
       <c r="S10">
-        <v>0.0001923853441193745</v>
+        <v>0.00558457291235882</v>
       </c>
       <c r="T10">
-        <v>0.0001923853441193745</v>
+        <v>0.005584572912358818</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1089,22 +1089,22 @@
         <v>21</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F11">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G11">
-        <v>0.1543923333333334</v>
+        <v>0.3378266666666667</v>
       </c>
       <c r="H11">
-        <v>0.4631770000000001</v>
+        <v>1.01348</v>
       </c>
       <c r="I11">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901278</v>
       </c>
       <c r="J11">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901277</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>188.379193</v>
       </c>
       <c r="O11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P11">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q11">
-        <v>9.694767719573447</v>
+        <v>21.21317161351556</v>
       </c>
       <c r="R11">
-        <v>87.25290947616102</v>
+        <v>190.91854452164</v>
       </c>
       <c r="S11">
-        <v>2.465240813799413E-05</v>
+        <v>0.0003431455766460535</v>
       </c>
       <c r="T11">
-        <v>2.465240813799412E-05</v>
+        <v>0.0003431455766460534</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1151,22 +1151,22 @@
         <v>22</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>0.1543923333333334</v>
+        <v>0.3378266666666667</v>
       </c>
       <c r="H12">
-        <v>0.4631770000000001</v>
+        <v>1.01348</v>
       </c>
       <c r="I12">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901278</v>
       </c>
       <c r="J12">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901277</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N12">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P12">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q12">
-        <v>27.70627145409934</v>
+        <v>63.22073949932</v>
       </c>
       <c r="R12">
-        <v>249.356443086894</v>
+        <v>568.98665549388</v>
       </c>
       <c r="S12">
-        <v>7.045308682223538E-05</v>
+        <v>0.001022662594105553</v>
       </c>
       <c r="T12">
-        <v>7.045308682223537E-05</v>
+        <v>0.001022662594105552</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1213,22 +1213,22 @@
         <v>23</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>0.1543923333333334</v>
+        <v>0.3378266666666667</v>
       </c>
       <c r="H13">
-        <v>0.4631770000000001</v>
+        <v>1.01348</v>
       </c>
       <c r="I13">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901278</v>
       </c>
       <c r="J13">
-        <v>0.0002877255279220385</v>
+        <v>0.006957800658901277</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N13">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P13">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q13">
-        <v>0.09229336951755557</v>
+        <v>0.4586762740444446</v>
       </c>
       <c r="R13">
-        <v>0.8306403256580001</v>
+        <v>4.1280864664</v>
       </c>
       <c r="S13">
-        <v>2.346888424344419E-07</v>
+        <v>7.419575790852722E-06</v>
       </c>
       <c r="T13">
-        <v>2.346888424344418E-07</v>
+        <v>7.419575790852719E-06</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>38.06207066666666</v>
+        <v>24.22548766666667</v>
       </c>
       <c r="H14">
-        <v>114.186212</v>
+        <v>72.676463</v>
       </c>
       <c r="I14">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="J14">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>490.031855</v>
+        <v>1021.934916333333</v>
       </c>
       <c r="N14">
-        <v>1470.095565</v>
+        <v>3065.804749</v>
       </c>
       <c r="O14">
-        <v>0.6686419015677429</v>
+        <v>0.8026347959846111</v>
       </c>
       <c r="P14">
-        <v>0.6686419015677429</v>
+        <v>0.802634795984611</v>
       </c>
       <c r="Q14">
-        <v>18651.62709392775</v>
+        <v>24756.8717117692</v>
       </c>
       <c r="R14">
-        <v>167864.6438453498</v>
+        <v>222811.8454059228</v>
       </c>
       <c r="S14">
-        <v>0.04742842086137233</v>
+        <v>0.4004686887120101</v>
       </c>
       <c r="T14">
-        <v>0.04742842086137233</v>
+        <v>0.40046868871201</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>38.06207066666666</v>
+        <v>24.22548766666667</v>
       </c>
       <c r="H15">
-        <v>114.186212</v>
+        <v>72.676463</v>
       </c>
       <c r="I15">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="J15">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>188.379193</v>
       </c>
       <c r="O15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893385</v>
       </c>
       <c r="P15">
-        <v>0.0856802950924601</v>
+        <v>0.04931810976893384</v>
       </c>
       <c r="Q15">
-        <v>2390.03405203188</v>
+        <v>1521.192605559373</v>
       </c>
       <c r="R15">
-        <v>21510.30646828692</v>
+        <v>13690.73345003436</v>
       </c>
       <c r="S15">
-        <v>0.00607751486355221</v>
+        <v>0.02460690571568316</v>
       </c>
       <c r="T15">
-        <v>0.00607751486355221</v>
+        <v>0.02460690571568315</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>38.06207066666666</v>
+        <v>24.22548766666667</v>
       </c>
       <c r="H16">
-        <v>114.186212</v>
+        <v>72.676463</v>
       </c>
       <c r="I16">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="J16">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>179.453674</v>
+        <v>187.139577</v>
       </c>
       <c r="N16">
-        <v>538.361022</v>
+        <v>561.418731</v>
       </c>
       <c r="O16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="P16">
-        <v>0.2448621341701915</v>
+        <v>0.1469807262726385</v>
       </c>
       <c r="Q16">
-        <v>6830.378421180963</v>
+        <v>4533.547514558717</v>
       </c>
       <c r="R16">
-        <v>61473.40579062867</v>
+        <v>40801.92763102845</v>
       </c>
       <c r="S16">
-        <v>0.0173686757069936</v>
+        <v>0.07333494512175497</v>
       </c>
       <c r="T16">
-        <v>0.0173686757069936</v>
+        <v>0.07333494512175494</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.06207066666666</v>
+        <v>24.22548766666667</v>
       </c>
       <c r="H17">
-        <v>114.186212</v>
+        <v>72.676463</v>
       </c>
       <c r="I17">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="J17">
-        <v>0.07093246885989114</v>
+        <v>0.498942595954547</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>0.5977846666666666</v>
+        <v>1.357726666666667</v>
       </c>
       <c r="N17">
-        <v>1.793354</v>
+        <v>4.073180000000001</v>
       </c>
       <c r="O17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="P17">
-        <v>0.0008156691696053909</v>
+        <v>0.001066367973816652</v>
       </c>
       <c r="Q17">
-        <v>22.75292222611644</v>
+        <v>32.89159061803778</v>
       </c>
       <c r="R17">
-        <v>204.776300035048</v>
+        <v>296.0243155623401</v>
       </c>
       <c r="S17">
-        <v>5.785742797300766E-05</v>
+        <v>0.0005320564050988708</v>
       </c>
       <c r="T17">
-        <v>5.785742797300766E-05</v>
+        <v>0.0005320564050988705</v>
       </c>
     </row>
   </sheetData>
